--- a/datawidgrafs.xlsx
+++ b/datawidgrafs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="440" windowWidth="28800" windowHeight="16520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,6 +53,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,18 +78,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -246,73 +259,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.00284991400000002</c:v>
+                  <c:v>0.00582357399999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00212582299999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00109576199999999</c:v>
+                  <c:v>0.00229710599999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>0.000670388999999999</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>0.000571625000000001</c:v>
+                  <c:v>0.000619618000000003</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>0.000778708999999997</c:v>
+                  <c:v>0.000839422999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.001238974</c:v>
+                  <c:v>0.00117365299999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00136237899999999</c:v>
+                  <c:v>0.00161637099999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00188013099999999</c:v>
+                  <c:v>0.002380634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.002749222</c:v>
+                  <c:v>0.002975538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.003145904</c:v>
+                  <c:v>0.00287727499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.013330546</c:v>
+                  <c:v>0.0130439229999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.032069384</c:v>
+                  <c:v>0.035327003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.059501938</c:v>
+                  <c:v>0.0617567759999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0820336089999999</c:v>
+                  <c:v>0.0918301950000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.144566440999999</c:v>
+                  <c:v>0.142705165</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.181249894999999</c:v>
+                  <c:v>0.215775843999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.232355376</c:v>
+                  <c:v>0.268944349999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.343635733999999</c:v>
+                  <c:v>0.141256475</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.415685373999999</c:v>
+                  <c:v>0.180157539</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.94686388899999</c:v>
+                  <c:v>1.498650929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.655700266</c:v>
+                  <c:v>3.439379425</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.27474607699999</c:v>
+                  <c:v>6.306515779</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.283370498</c:v>
+                  <c:v>8.798110089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,76 +429,249 @@
             <c:numRef>
               <c:f>Sheet1!$C$1:$C$23</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.001196798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00213482699999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>0.000297912999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0.0003295</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0.000339359000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.000410032999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0.000419257</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>0.000559332</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>0.000688227999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>0.000711356999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>0.000353468</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>0.000530782</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0.000984882</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00110713199999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.001288616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.001517439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.002564916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.010865517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.009387123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.121424813999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.252701035999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.445738552</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.467988993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$23</c:f>
+              <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.00281763499999998</c:v>
+                <c:pt idx="0">
+                  <c:v>0.000482728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000226320999999995</c:v>
+                  <c:v>0.000261004000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000290100000000003</c:v>
+                  <c:v>0.000392871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00035839</c:v>
+                  <c:v>0.000273161000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000346510000000001</c:v>
+                  <c:v>0.000178581000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000117042999999999</c:v>
+                  <c:v>0.000224396000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000114834000000001</c:v>
+                  <c:v>0.000223447000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000122136999999998</c:v>
+                  <c:v>0.000227036999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000128038</c:v>
+                  <c:v>0.000244890999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000133868999999997</c:v>
+                  <c:v>0.000258308999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.000231710000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.000470153</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.000582570000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.000694641000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.000867831000000002</c:v>
+                  <c:v>0.000491840999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.001226121</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.001631433</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.001982432</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.002327155</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.00112125899999999</c:v>
+                  <c:v>0.003151823</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.00129064399999999</c:v>
+                  <c:v>0.00322361699999999</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.00136970099999999</c:v>
+                  <c:v>0.006326978</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.00224124899999999</c:v>
+                  <c:v>0.002938498</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.0188451339999999</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.0335428689999999</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.068994844</c:v>
+                  <c:v>0.001815792</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000744878000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.000621806000000003</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.0711961929999999</c:v>
+                  <c:v>0.007653527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,16 +1433,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>269495</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>114244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1541,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView showRuler="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2191,6 +2377,328 @@
       </c>
       <c r="D46">
         <v>2.3778766573642099E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6.7628039999999999E-3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4.0490946E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.20122362099999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>20</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.2E-4</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7.3399999999999996E-8</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2.7099999999999997E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>30</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5.3600000000000001E-10</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.3099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.54E-4</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5.3700000000000001E-10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.3200000000000001E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3.0299999999999999E-4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8.3699999999999998E-9</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9.1500000000000001E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>60</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6.99E-7</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8.3600000000000005E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>70</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5.5599999999999998E-9</v>
+      </c>
+      <c r="D53" s="3">
+        <v>7.4599999999999997E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>80</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.5399999999999999E-4</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.1400000000000001E-7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4.6299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>90</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2.7E-4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.9499999999999999E-8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>100</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3.1799999999999998E-4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4.2E-7</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6.4800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>200</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>9.1000000000000004E-9</v>
+      </c>
+      <c r="D57" s="3">
+        <v>9.5400000000000001E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>300</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.1175479999999999E-3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5.7599999999999997E-7</v>
+      </c>
+      <c r="D58" s="3">
+        <v>7.5900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>400</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.6985119999999999E-3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2.0899999999999999E-6</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.4460339999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>500</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.911828E-3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>7.3300000000000001E-7</v>
+      </c>
+      <c r="D60" s="3">
+        <v>8.5599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>600</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2.3994960000000001E-3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>8.4099999999999997E-7</v>
+      </c>
+      <c r="D61" s="3">
+        <v>9.1699999999999995E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>700</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2.9837029999999999E-3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3.4400000000000001E-6</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.8542700000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>800</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3.71537E-3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2.8900000000000001E-5</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5.3745370000000004E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>900</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.1083378E-2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.34E-4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.1579314E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.0025038999999999E-2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>9.7799999999999995E-6</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3.1280689999999998E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B66" s="2">
+        <v>8.9541913000000001E-2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2.3040410000000002E-3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4.8000432000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B67" s="2">
+        <v>7.8349324999999997E-2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.9546239999999999E-3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.4211132E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B68" s="2">
+        <v>8.6441497000000006E-2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.131492E-3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3.3637658000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B69" s="2">
+        <v>9.3098279000000006E-2</v>
+      </c>
+      <c r="C69" s="3">
+        <v>8.4500000000000005E-4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.9072133999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2201,265 +2709,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="109" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10</v>
       </c>
       <c r="B1">
-        <v>2.8499140000000202E-3</v>
+        <v>5.8235739999999599E-3</v>
       </c>
       <c r="C1">
-        <v>2.8176349999999798E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.196798E-3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4.8272799999999998E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>2.1258229999999898E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.2632099999999499E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.2971059999999902E-3</v>
+      </c>
+      <c r="C2">
+        <v>2.1348269999999902E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.6100400000000099E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>1.0957619999999899E-3</v>
+      <c r="B3" s="1">
+        <v>6.7038899999999899E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>2.9010000000000299E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.9791299999999899E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.9287099999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>5.7162500000000095E-4</v>
+        <v>6.1961800000000298E-4</v>
       </c>
       <c r="C4" s="1">
-        <v>3.5838999999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.2949999999999999E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.7316100000000099E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5" s="1">
-        <v>7.7870899999999701E-4</v>
+        <v>8.3942299999999897E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>3.4651000000000099E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3935900000000099E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7858100000000201E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>60</v>
       </c>
       <c r="B6">
-        <v>1.2389740000000001E-3</v>
+        <v>1.17365299999999E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>1.1704299999999899E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.1003299999999899E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.24396000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70</v>
       </c>
       <c r="B7">
-        <v>1.36237899999999E-3</v>
+        <v>1.6163709999999899E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.1483400000000099E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.1925699999999997E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.23447000000003E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>80</v>
       </c>
       <c r="B8">
-        <v>1.88013099999999E-3</v>
+        <v>2.380634E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.2213699999999799E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.5933199999999995E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.27036999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>90</v>
       </c>
       <c r="B9">
-        <v>2.749222E-3</v>
+        <v>2.9755379999999998E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>1.28038E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.8822799999999798E-4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.44890999999996E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="B10">
-        <v>3.1459040000000001E-3</v>
+        <v>2.8772749999999899E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.3386899999999699E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.1135699999999905E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5830899999999802E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>200</v>
       </c>
       <c r="B11">
-        <v>1.3330546E-2</v>
+        <v>1.30439229999999E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>2.31710000000003E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.5346800000000001E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.9184099999999905E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>300</v>
       </c>
       <c r="B12">
-        <v>3.2069383999999999E-2</v>
+        <v>3.5327003000000003E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>4.7015300000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.3078200000000004E-4</v>
+      </c>
+      <c r="D12">
+        <v>1.2261209999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>400</v>
       </c>
       <c r="B13">
-        <v>5.9501937999999997E-2</v>
+        <v>6.1756775999999902E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>5.8257000000000198E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.8488200000000008E-4</v>
+      </c>
+      <c r="D13">
+        <v>1.6314330000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>500</v>
       </c>
       <c r="B14">
-        <v>8.2033608999999896E-2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6.9464100000000105E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.18301950000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.1071319999999901E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.9824320000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>600</v>
       </c>
       <c r="B15">
-        <v>0.14456644099999899</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8.6783100000000196E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.14270516499999999</v>
+      </c>
+      <c r="C15">
+        <v>1.288616E-3</v>
+      </c>
+      <c r="D15">
+        <v>2.327155E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>700</v>
       </c>
       <c r="B16">
-        <v>0.181249894999999</v>
+        <v>0.215775843999999</v>
       </c>
       <c r="C16">
-        <v>1.1212589999999899E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.517439E-3</v>
+      </c>
+      <c r="D16">
+        <v>3.1518230000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>800</v>
       </c>
       <c r="B17">
-        <v>0.232355376</v>
+        <v>0.268944349999999</v>
       </c>
       <c r="C17">
-        <v>1.2906439999999901E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.564916E-3</v>
+      </c>
+      <c r="D17">
+        <v>3.2236169999999898E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>900</v>
       </c>
       <c r="B18">
-        <v>0.34363573399999903</v>
+        <v>0.14125647499999999</v>
       </c>
       <c r="C18">
-        <v>1.3697009999999901E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.0865517E-2</v>
+      </c>
+      <c r="D18">
+        <v>6.3269779999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1000</v>
       </c>
       <c r="B19">
-        <v>0.415685373999999</v>
+        <v>0.18015753900000001</v>
       </c>
       <c r="C19">
-        <v>2.2412489999999899E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.3871230000000007E-3</v>
+      </c>
+      <c r="D19">
+        <v>2.9384979999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2000</v>
       </c>
       <c r="B20">
-        <v>1.9468638889999901</v>
+        <v>1.4986509290000001</v>
       </c>
       <c r="C20">
-        <v>1.8845133999999899E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.12142481399999901</v>
+      </c>
+      <c r="D20">
+        <v>1.8157920000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3000</v>
       </c>
       <c r="B21">
-        <v>5.6557002660000002</v>
+        <v>3.4393794249999998</v>
       </c>
       <c r="C21">
-        <v>3.3542868999999899E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.25270103599999899</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.4487800000000198E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4000</v>
       </c>
       <c r="B22">
-        <v>9.2747460769999908</v>
+        <v>6.3065157789999997</v>
       </c>
       <c r="C22">
-        <v>6.8994844E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.44573855200000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.2180600000000296E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5000</v>
       </c>
       <c r="B23">
-        <v>12.283370498</v>
+        <v>8.7981100889999997</v>
       </c>
       <c r="C23">
-        <v>7.1196192999999894E-2</v>
+        <v>0.46798899300000002</v>
+      </c>
+      <c r="D23">
+        <v>7.6535270000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/datawidgrafs.xlsx
+++ b/datawidgrafs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="440" windowWidth="28800" windowHeight="16520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,24 +101,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -123,6 +157,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Timing Experiment on worst case instances</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -155,13 +214,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0737318854370293"/>
+          <c:y val="0.101549642844424"/>
+          <c:w val="0.891264191551127"/>
+          <c:h val="0.684222396798317"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Linear</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -174,12 +246,241 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$3:$F$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="33"/>
+                  <c:pt idx="0">
+                    <c:v>0.165603373589942</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00342413405005761</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0032614378667324</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00364169272983307</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.74999798153455E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00024849716452103</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000180891426438641</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000962466666375518</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000780432169039049</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00223065225447626</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00570967077927539</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0164689832230773</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0496392751873277</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.035701224715889</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.0368518099064238</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.0689225367222415</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.0894850959916116</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.193784525510753</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.283650320979773</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.14179755439675</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.88177536536626</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>6.59385646471303</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0834990322612</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.95368430337464</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.34706196093108</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.64729762331376</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>8.82632358061106</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>12.3910792512639</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>10.3428994308687</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>12.7045852615541</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>11.8102750046762</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>25.065075592337</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$3:$F$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="33"/>
+                  <c:pt idx="0">
+                    <c:v>0.165603373589942</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00342413405005761</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0032614378667324</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00364169272983307</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.74999798153455E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00024849716452103</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000180891426438641</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000962466666375518</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000780432169039049</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00223065225447626</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00570967077927539</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0164689832230773</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0496392751873277</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.035701224715889</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.0368518099064238</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.0689225367222415</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.0894850959916116</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.193784525510753</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.283650320979773</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.14179755439675</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.88177536536626</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>6.59385646471303</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0834990322612</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.95368430337464</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.34706196093108</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.64729762331376</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>8.82632358061106</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>12.3910792512639</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>10.3428994308687</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>12.7045852615541</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>11.8102750046762</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>25.065075592337</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:f>Sheet1!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10.0</c:v>
                 </c:pt>
@@ -248,84 +549,138 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$23</c:f>
+              <c:f>Sheet1!$B$3:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.00582357399999996</c:v>
+                  <c:v>0.00846888199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00229710599999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>0.000670388999999999</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>0.000619618000000003</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>0.000839422999999999</c:v>
+                  <c:v>0.001824894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00401896199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001843191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.001305044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00117365299999999</c:v>
+                  <c:v>0.001928215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00161637099999999</c:v>
+                  <c:v>0.00137577899999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.002380634</c:v>
+                  <c:v>0.002442954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.002975538</c:v>
+                  <c:v>0.00271527299999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00287727499999999</c:v>
+                  <c:v>0.00352905999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0130439229999999</c:v>
+                  <c:v>0.0140942669999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.035327003</c:v>
+                  <c:v>0.0391664989999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0617567759999999</c:v>
+                  <c:v>0.0655582339999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0918301950000001</c:v>
+                  <c:v>0.100387171999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.142705165</c:v>
+                  <c:v>0.120711103999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.215775843999999</c:v>
+                  <c:v>0.177802928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.268944349999999</c:v>
+                  <c:v>0.224638499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.141256475</c:v>
+                  <c:v>0.335487723999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.180157539</c:v>
+                  <c:v>0.423238587</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.498650929</c:v>
+                  <c:v>2.119605624</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.439379425</c:v>
+                  <c:v>5.576780336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.306515779</c:v>
+                  <c:v>8.944802687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.798110089</c:v>
+                  <c:v>10.2524124079999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.4159030559999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.836084348</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.065623854</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.57788904</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.983722716</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.8837062189999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.380837983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.62789246600011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88.58750359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,10 +690,13 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Binary</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -347,12 +705,241 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$3:$G$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="33"/>
+                  <c:pt idx="0">
+                    <c:v>0.09587397</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000942</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000559</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000978</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000423</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.002256211</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000783</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.001264369</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000597</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00139648</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.003248181</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00545343</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.00782529</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.011144981</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.008014758</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.025728795</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.01853158</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.019781455</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.05927266</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.115050115</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.300608727</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.408485588</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.534625974</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.666942916</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.809574251</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.973923935</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.153150232</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.274202449</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.514178136</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1.697605517</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>1.945737051</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$3:$G$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="33"/>
+                  <c:pt idx="0">
+                    <c:v>0.09587397</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000942</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000559</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000978</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000423</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.002256211</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000783</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.001264369</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000597</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00139648</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.003248181</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00545343</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.00782529</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.011144981</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.008014758</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.025728795</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.01853158</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.019781455</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.05927266</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.115050115</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.300608727</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.408485588</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.534625974</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.666942916</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.809574251</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.973923935</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.153150232</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.274202449</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.514178136</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1.697605517</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>1.945737051</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:f>Sheet1!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10.0</c:v>
                 </c:pt>
@@ -421,84 +1008,138 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$23</c:f>
+              <c:f>Sheet1!$C$3:$C$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.001196798</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.004348883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00213482699999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>0.000297912999999999</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>0.0003295</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>0.000339359000000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>0.000410032999999999</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>0.000419257</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>0.000559332</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>0.000688227999999998</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>0.000711356999999999</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>0.000353468</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>0.000530782</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>0.000984882</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.00110713199999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.001288616</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.001517439</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.002564916</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.010865517</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.009387123</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.121424813999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.252701035999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.445738552</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.467988993</c:v>
+                  <c:v>0.000468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000812</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.001609782</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.001300618</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.001615806</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.001497086</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.001748159</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.001973015</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.004784181</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.007581834</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.014666229</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.019706204</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.029658464</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.025866155</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.050749579</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.043374192</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.048055101</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.130372104</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.237594473</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.467878815</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.623262759</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.861573244</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>1.199164722</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.617436252</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>1.959171119</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>2.510961537</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>2.886278387</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>2.776429846</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>2.991908698</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>3.313375153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,10 +1149,16 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Step</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -520,12 +1167,241 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$H$3:$H$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="33"/>
+                  <c:pt idx="0">
+                    <c:v>0.090948439</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.45E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00061</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000776</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000287</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000737</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000592</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000775</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.29E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.001428231</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000466</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.001953883</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.003101228</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.00110994</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.008098752</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.005149956</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.005888349</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.004533338</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.009912603</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.032832248</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.03274131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.045666393</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.050291566</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.056756443</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.077200838</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.100910543</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.12611587</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.088845122</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0.066914009</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.086706737</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.128749789</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0.181259239</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$H$3:$H$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="33"/>
+                  <c:pt idx="0">
+                    <c:v>0.090948439</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.45E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00061</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000776</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000287</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000737</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000592</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000775</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.29E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.001428231</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000466</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.001953883</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.003101228</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.00110994</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.008098752</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.005149956</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.005888349</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.004533338</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.009912603</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.032832248</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.03274131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.045666393</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.050291566</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.056756443</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.077200838</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.100910543</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.12611587</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.088845122</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0.066914009</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.086706737</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.128749789</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0.181259239</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:f>Sheet1!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10.0</c:v>
                 </c:pt>
@@ -594,84 +1470,138 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$23</c:f>
+              <c:f>Sheet1!$D$3:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.000482728</c:v>
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.003558292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000261004000000001</c:v>
+                  <c:v>0.000420264999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000392871</c:v>
+                  <c:v>0.000352516999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000273161000000001</c:v>
+                  <c:v>0.000398093000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000178581000000002</c:v>
+                  <c:v>0.000479506000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000224396000000001</c:v>
+                  <c:v>0.000542019999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000223447000000003</c:v>
+                  <c:v>0.000682335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000227036999999999</c:v>
+                  <c:v>0.000755071999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000244890999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.000258308999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.000491840999999999</c:v>
+                  <c:v>0.000860929000000008</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.00120562799999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.00234036</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.001226121</c:v>
+                  <c:v>0.004396357</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.001631433</c:v>
+                  <c:v>0.00668007499999999</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.001982432</c:v>
+                  <c:v>0.00703282599999999</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.002327155</c:v>
+                  <c:v>0.011265882</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.003151823</c:v>
+                  <c:v>0.011740048</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.00322361699999999</c:v>
+                  <c:v>0.014555421</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.006326978</c:v>
+                  <c:v>0.0154477309999999</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.002938498</c:v>
+                  <c:v>0.022179509</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.001815792</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.000744878000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.000621806000000003</c:v>
+                  <c:v>0.061507704</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.104095926</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.146363468</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.007653527</c:v>
+                  <c:v>0.176148935</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.224881354999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.275579555</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.330896697999999</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.389677101999999</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.38206543</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.411046928999999</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.447380788999999</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.568584816999999</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.801660523999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,18 +1617,74 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1917467536"/>
-        <c:axId val="-1867426528"/>
+        <c:axId val="-1725842320"/>
+        <c:axId val="-1725838416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1917467536"/>
+        <c:axId val="-1725842320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -734,7 +1720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1867426528"/>
+        <c:crossAx val="-1725838416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -742,7 +1728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1867426528"/>
+        <c:axId val="-1725838416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,6 +1748,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (miliseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -792,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1917467536"/>
+        <c:crossAx val="-1725842320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,7 +1848,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.374621205380742"/>
+          <c:y val="0.856880516897238"/>
+          <c:w val="0.179986005973885"/>
+          <c:h val="0.031720906204231"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -868,7 +1919,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -914,7 +1965,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1022,11 +2073,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1037,11 +2083,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1073,9 +2114,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1131,22 +2169,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1251,8 +2290,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1316,6 +2355,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1384,19 +2434,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1433,20 +2484,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>269495</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152784</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114244</xdr:rowOff>
+      <xdr:rowOff>50328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2709,338 +3760,796 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D23"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="25" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>5.8235739999999599E-3</v>
-      </c>
-      <c r="C1">
-        <v>1.196798E-3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4.8272799999999998E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B3">
+        <v>8.4688819999999901E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.3488829999999996E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.5582919999999998E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.16560337358994201</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9.5873970000000003E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9.0948439000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>2.2971059999999902E-3</v>
-      </c>
-      <c r="C2">
-        <v>2.1348269999999902E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.6100400000000099E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B4">
+        <v>1.8248940000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.6799999999999999E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.2026499999999801E-4</v>
+      </c>
+      <c r="F4">
+        <v>3.4241340500576101E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.4499999999999996E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>30</v>
       </c>
-      <c r="B3" s="1">
-        <v>6.7038899999999899E-4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.9791299999999899E-4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.9287099999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B5">
+        <v>4.0189619999999896E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.0400000000000004E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.5251699999999799E-4</v>
+      </c>
+      <c r="F5">
+        <v>3.2614378667324001E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5.5900000000000004E-4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.0999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>40</v>
       </c>
-      <c r="B4" s="1">
-        <v>6.1961800000000298E-4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.2949999999999999E-4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.7316100000000099E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B6">
+        <v>1.8431910000000001E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8.12E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.9809300000000198E-4</v>
+      </c>
+      <c r="F6">
+        <v>3.64169272983307E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7.76E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>50</v>
       </c>
-      <c r="B5" s="1">
-        <v>8.3942299999999897E-4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.3935900000000099E-4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.7858100000000201E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B7">
+        <v>1.305044E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.6097819999999999E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.7950600000000102E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.74999798153455E-5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9.7799999999999992E-4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.8699999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>60</v>
       </c>
-      <c r="B6">
-        <v>1.17365299999999E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.1003299999999899E-4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.24396000000001E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B8">
+        <v>1.9282150000000001E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.3006179999999999E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.42019999999993E-4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.4849716452103002E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.2299999999999998E-4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.3700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>70</v>
       </c>
-      <c r="B7">
-        <v>1.6163709999999899E-3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.1925699999999997E-4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.23447000000003E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B9">
+        <v>1.37577899999999E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.615806E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.8233499999999995E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.8089142643864099E-4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2562110000000002E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.9199999999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>80</v>
       </c>
-      <c r="B8">
-        <v>2.380634E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.5933199999999995E-4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.27036999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B10">
+        <v>2.4429539999999998E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.4970859999999999E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.5507199999999704E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9.6246666637551795E-4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7.7499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>90</v>
       </c>
-      <c r="B9">
-        <v>2.9755379999999998E-3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.8822799999999798E-4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.44890999999996E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B11">
+        <v>2.7152729999999898E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.748159E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.6092900000000799E-4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.8043216903904899E-4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.264369E-3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.2899999999999998E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>100</v>
       </c>
-      <c r="B10">
-        <v>2.8772749999999899E-3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7.1135699999999905E-4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.5830899999999802E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B12">
+        <v>3.5290599999999901E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.9730149999999998E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.2056279999999901E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.23065225447626E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.9699999999999998E-4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.4282310000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>200</v>
       </c>
-      <c r="B11">
-        <v>1.30439229999999E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.5346800000000001E-4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4.9184099999999905E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B13">
+        <v>1.40942669999999E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.7841810000000002E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.3403600000000001E-3</v>
+      </c>
+      <c r="F13">
+        <v>5.7096707792753899E-3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.3964800000000001E-3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.66E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>300</v>
       </c>
-      <c r="B12">
-        <v>3.5327003000000003E-2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.3078200000000004E-4</v>
-      </c>
-      <c r="D12">
-        <v>1.2261209999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B14">
+        <v>3.9166498999999903E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.581834E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.396357E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.6468983223077299E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.2481810000000002E-3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.953883E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>400</v>
       </c>
-      <c r="B13">
-        <v>6.1756775999999902E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9.8488200000000008E-4</v>
-      </c>
-      <c r="D13">
-        <v>1.6314330000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B15">
+        <v>6.5558233999999896E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.4666228999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.6800749999999902E-3</v>
+      </c>
+      <c r="F15">
+        <v>4.9639275187327699E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.4534300000000004E-3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.1012280000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>500</v>
       </c>
-      <c r="B14">
-        <v>9.18301950000001E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.1071319999999901E-3</v>
-      </c>
-      <c r="D14">
-        <v>1.9824320000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B16">
+        <v>0.100387171999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.9706204000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>7.0328259999999903E-3</v>
+      </c>
+      <c r="F16">
+        <v>3.5701224715888998E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7.8252900000000004E-3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.10994E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>600</v>
       </c>
-      <c r="B15">
-        <v>0.14270516499999999</v>
-      </c>
-      <c r="C15">
-        <v>1.288616E-3</v>
-      </c>
-      <c r="D15">
-        <v>2.327155E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B17">
+        <v>0.120711103999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.9658463999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.1265882E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.6851809906423803E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.1144981E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8.0987520000000007E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>700</v>
       </c>
-      <c r="B16">
-        <v>0.215775843999999</v>
-      </c>
-      <c r="C16">
-        <v>1.517439E-3</v>
-      </c>
-      <c r="D16">
-        <v>3.1518230000000002E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="B18">
+        <v>0.177802928</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.5866154999999998E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.1740047999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>6.8922536722241495E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8.0147580000000003E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.1499559999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>800</v>
       </c>
-      <c r="B17">
-        <v>0.268944349999999</v>
-      </c>
-      <c r="C17">
-        <v>2.564916E-3</v>
-      </c>
-      <c r="D17">
-        <v>3.2236169999999898E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B19">
+        <v>0.22463849899999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.0749579000000003E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.4555421000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>8.9485095991611599E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.5728794999999999E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.8883490000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>900</v>
       </c>
-      <c r="B18">
-        <v>0.14125647499999999</v>
-      </c>
-      <c r="C18">
-        <v>1.0865517E-2</v>
-      </c>
-      <c r="D18">
-        <v>6.3269779999999996E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B20">
+        <v>0.33548772399999899</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.3374191999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.54477309999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.19378452551075301</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.8531579999999999E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.5333379999999996E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1000</v>
       </c>
-      <c r="B19">
-        <v>0.18015753900000001</v>
-      </c>
-      <c r="C19">
-        <v>9.3871230000000007E-3</v>
-      </c>
-      <c r="D19">
-        <v>2.9384979999999999E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B21">
+        <v>0.423238587</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.8055101000000003E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.2179509E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.283650320979773</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.9781455E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9.9126030000000007E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2000</v>
       </c>
-      <c r="B20">
-        <v>1.4986509290000001</v>
-      </c>
-      <c r="C20">
-        <v>0.12142481399999901</v>
-      </c>
-      <c r="D20">
-        <v>1.8157920000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="B22">
+        <v>2.1196056240000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.13037210399999999</v>
+      </c>
+      <c r="D22">
+        <v>6.1507704000000003E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.14179755439675</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5.9272659999999998E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3.2832248000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3000</v>
       </c>
-      <c r="B21">
-        <v>3.4393794249999998</v>
-      </c>
-      <c r="C21">
-        <v>0.25270103599999899</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7.4487800000000198E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B23">
+        <v>5.5767803359999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.237594473</v>
+      </c>
+      <c r="D23">
+        <v>0.10409592600000001</v>
+      </c>
+      <c r="F23">
+        <v>2.8817753653662601</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.11505011499999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.2741310000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>4000</v>
       </c>
-      <c r="B22">
-        <v>6.3065157789999997</v>
-      </c>
-      <c r="C22">
-        <v>0.44573855200000001</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6.2180600000000296E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="B24">
+        <v>8.9448026869999993</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.467878815</v>
+      </c>
+      <c r="D24">
+        <v>0.146363468</v>
+      </c>
+      <c r="F24">
+        <v>6.5938564647130304</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.30060872700000002</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.5666393E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>5000</v>
       </c>
-      <c r="B23">
-        <v>8.7981100889999997</v>
-      </c>
-      <c r="C23">
-        <v>0.46798899300000002</v>
-      </c>
-      <c r="D23">
-        <v>7.6535270000000002E-3</v>
-      </c>
+      <c r="B25">
+        <v>10.2524124079999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.62326275900000006</v>
+      </c>
+      <c r="D25">
+        <v>0.17614893500000001</v>
+      </c>
+      <c r="F25">
+        <v>3.0834990322612001</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.40848558800000001</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5.0291566000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6000</v>
+      </c>
+      <c r="B26">
+        <v>15.4159030559999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.86157324400000002</v>
+      </c>
+      <c r="D26">
+        <v>0.22488135499999901</v>
+      </c>
+      <c r="F26">
+        <v>3.9536843033746401</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.534625974</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5.6756442999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7000</v>
+      </c>
+      <c r="B27">
+        <v>21.836084348</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.1991647219999999</v>
+      </c>
+      <c r="D27">
+        <v>0.27557955499999998</v>
+      </c>
+      <c r="F27">
+        <v>4.3470619609310797</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.666942916</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7.7200837999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8000</v>
+      </c>
+      <c r="B28">
+        <v>28.065623853999998</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.6174362520000001</v>
+      </c>
+      <c r="D28">
+        <v>0.33089669799999899</v>
+      </c>
+      <c r="F28">
+        <v>4.6472976233137597</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.80957425100000002</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.10091054300000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9000</v>
+      </c>
+      <c r="B29">
+        <v>35.577889040000002</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.9591711190000001</v>
+      </c>
+      <c r="D29">
+        <v>0.389677101999999</v>
+      </c>
+      <c r="F29">
+        <v>8.82632358061106</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.97392393499999996</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.12611586999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000</v>
+      </c>
+      <c r="B30">
+        <v>43.983722716000003</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.510961537</v>
+      </c>
+      <c r="D30">
+        <v>0.38206542999999998</v>
+      </c>
+      <c r="F30">
+        <v>12.3910792512639</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.153150232</v>
+      </c>
+      <c r="H30" s="2">
+        <v>8.8845121999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>11000</v>
+      </c>
+      <c r="B31">
+        <v>53.883706218999897</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.8862783869999999</v>
+      </c>
+      <c r="D31">
+        <v>0.41104692899999901</v>
+      </c>
+      <c r="F31">
+        <v>10.3428994308687</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.2742024489999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6.6914008999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>12000</v>
+      </c>
+      <c r="B32">
+        <v>63.380837982999999</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.7764298460000001</v>
+      </c>
+      <c r="D32">
+        <v>0.447380788999999</v>
+      </c>
+      <c r="F32">
+        <v>12.704585261554101</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.514178136</v>
+      </c>
+      <c r="H32" s="2">
+        <v>8.6706737000000006E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>13000</v>
+      </c>
+      <c r="B33">
+        <v>71.627892466000105</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.991908698</v>
+      </c>
+      <c r="D33">
+        <v>0.56858481699999897</v>
+      </c>
+      <c r="F33">
+        <v>11.8102750046762</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.697605517</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.128749789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>14000</v>
+      </c>
+      <c r="B34">
+        <v>88.587503589999997</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.313375153</v>
+      </c>
+      <c r="D34">
+        <v>0.80166052399999899</v>
+      </c>
+      <c r="F34">
+        <v>25.065075592336999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1.9457370510000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.18125923899999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>